--- a/outputs-HGR-r202/g__Faecalibacterium.xlsx
+++ b/outputs-HGR-r202/g__Faecalibacterium.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,70 +442,65 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>1-s__</t>
+          <t>1-s__Faecalibacterium prausnitzii</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2-s__Faecalibacterium prausnitzii</t>
+          <t>2-s__Faecalibacterium prausnitzii_C</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>3-s__Faecalibacterium prausnitzii_C</t>
+          <t>3-s__Faecalibacterium prausnitzii_D</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>4-s__Faecalibacterium prausnitzii_D</t>
+          <t>4-s__Faecalibacterium prausnitzii_H</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>5-s__Faecalibacterium prausnitzii_H</t>
+          <t>5-s__Faecalibacterium prausnitzii_I</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>6-s__Faecalibacterium prausnitzii_I</t>
+          <t>6-s__Faecalibacterium prausnitzii_M</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>7-s__Faecalibacterium prausnitzii_M</t>
+          <t>7-s__Faecalibacterium sp900539885</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>8-s__Faecalibacterium sp900539885</t>
+          <t>8-s__Faecalibacterium sp900539945</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>9-s__Faecalibacterium sp900539945</t>
+          <t>9-s__Faecalibacterium sp900540455</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>10-s__Faecalibacterium sp900540455</t>
+          <t>10-s__Faecalibacterium sp900551435</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>11-s__Faecalibacterium sp900551435</t>
+          <t>max</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>max</t>
+          <t>prediction</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>prediction</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>rejection-f</t>
         </is>
@@ -518,47 +513,44 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0006563085101274486</v>
+        <v>0.00291544113074167</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004389084691601152</v>
+        <v>0.03028773822265633</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04300861874024622</v>
+        <v>0.05404870589977499</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01066796224765637</v>
+        <v>0.007864160828675904</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001093343618952441</v>
+        <v>0.001232001793573512</v>
       </c>
       <c r="G2" t="n">
-        <v>0.001135749464951253</v>
+        <v>0.002049866287938948</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0005072280002967165</v>
+        <v>0.1312076541950222</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1061670533856115</v>
+        <v>0.7656616068373685</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8298794183436091</v>
+        <v>0.002690391764431667</v>
       </c>
       <c r="K2" t="n">
-        <v>0.00245130246695129</v>
+        <v>0.002042433039816254</v>
       </c>
       <c r="L2" t="n">
-        <v>4.393052999637428e-05</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.8298794183436091</v>
+        <v>0.7656616068373685</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>s__Faecalibacterium sp900539945</t>
+        </is>
       </c>
       <c r="N2" t="inlineStr">
-        <is>
-          <t>s__Faecalibacterium sp900539945</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
         <is>
           <t>s__Faecalibacterium sp900539945</t>
         </is>
@@ -571,47 +563,44 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0002631958917388743</v>
+        <v>0.001181019686043909</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0003848823664002215</v>
+        <v>0.01822550623936489</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01504904369087509</v>
+        <v>0.02448258510828103</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001069179693159362</v>
+        <v>0.004523316520382258</v>
       </c>
       <c r="F3" t="n">
-        <v>0.000116684773729575</v>
+        <v>0.0003660923443603821</v>
       </c>
       <c r="G3" t="n">
-        <v>4.222870487857253e-05</v>
+        <v>0.004219133448775241</v>
       </c>
       <c r="H3" t="n">
-        <v>0.001641319277795886</v>
+        <v>0.1265451814680078</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04731631275742283</v>
+        <v>0.8191806430614996</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9340758168631695</v>
+        <v>0.0004532374311767713</v>
       </c>
       <c r="K3" t="n">
-        <v>3.8951793709081e-05</v>
+        <v>0.0008232846921080821</v>
       </c>
       <c r="L3" t="n">
-        <v>2.384187120996029e-06</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.9340758168631695</v>
+        <v>0.8191806430614996</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>s__Faecalibacterium sp900539945</t>
+        </is>
       </c>
       <c r="N3" t="inlineStr">
-        <is>
-          <t>s__Faecalibacterium sp900539945</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
         <is>
           <t>s__Faecalibacterium sp900539945</t>
         </is>
@@ -624,47 +613,44 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0004170637280279356</v>
+        <v>0.007391460167822824</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001736433156428818</v>
+        <v>0.01683871192314321</v>
       </c>
       <c r="D4" t="n">
-        <v>0.005874231642709266</v>
+        <v>0.01024926447003074</v>
       </c>
       <c r="E4" t="n">
-        <v>4.976195546983764e-08</v>
+        <v>0.00232698262925134</v>
       </c>
       <c r="F4" t="n">
-        <v>4.779494989296544e-05</v>
+        <v>0.0005510432065014549</v>
       </c>
       <c r="G4" t="n">
-        <v>3.932598787654679e-05</v>
+        <v>0.003569663982805737</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0007931635347187768</v>
+        <v>0.03361032795287026</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02453384711053907</v>
+        <v>0.002962517519570721</v>
       </c>
       <c r="J4" t="n">
-        <v>7.578250162871222e-05</v>
+        <v>0.9215178594787847</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9664823075903735</v>
+        <v>0.0009821686692190572</v>
       </c>
       <c r="L4" t="n">
-        <v>3.584901150298662e-11</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9664823075903735</v>
+        <v>0.9215178594787847</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>s__Faecalibacterium sp900540455</t>
+        </is>
       </c>
       <c r="N4" t="inlineStr">
-        <is>
-          <t>s__Faecalibacterium sp900540455</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
         <is>
           <t>s__Faecalibacterium sp900540455</t>
         </is>
@@ -677,47 +663,44 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.001615119472294727</v>
+        <v>0.005474855135123653</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0025820015532153</v>
+        <v>0.01268037102425095</v>
       </c>
       <c r="D5" t="n">
-        <v>0.003694226620031357</v>
+        <v>0.02389092240822805</v>
       </c>
       <c r="E5" t="n">
-        <v>2.573766150601019e-05</v>
+        <v>0.00701665521181208</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0001186015121278536</v>
+        <v>0.00440332908751698</v>
       </c>
       <c r="G5" t="n">
-        <v>5.73212554047893e-05</v>
+        <v>0.00112760364462662</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0002359933215602524</v>
+        <v>0.06985522192357678</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02208629812652015</v>
+        <v>0.003764479456501869</v>
       </c>
       <c r="J5" t="n">
-        <v>2.243859435688922e-05</v>
+        <v>0.8659697033697228</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9695618466911157</v>
+        <v>0.005816858738640216</v>
       </c>
       <c r="L5" t="n">
-        <v>4.151918671529155e-07</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.9695618466911157</v>
+        <v>0.8659697033697228</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>s__Faecalibacterium sp900540455</t>
+        </is>
       </c>
       <c r="N5" t="inlineStr">
-        <is>
-          <t>s__Faecalibacterium sp900540455</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
         <is>
           <t>s__Faecalibacterium sp900540455</t>
         </is>
@@ -730,47 +713,44 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.000153657352158936</v>
+        <v>0.000303438565354262</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0002722068033972514</v>
+        <v>0.01957096701596941</v>
       </c>
       <c r="D6" t="n">
-        <v>0.007483463800346717</v>
+        <v>0.02710372693329072</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0002925737998433608</v>
+        <v>0.002252921413166009</v>
       </c>
       <c r="F6" t="n">
-        <v>3.175411487880517e-05</v>
+        <v>0.869840958988926</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9331535034505237</v>
+        <v>0.0009969141506477916</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0002832251700961659</v>
+        <v>0.05545217920225108</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02264612478736923</v>
+        <v>0.006652789391460996</v>
       </c>
       <c r="J6" t="n">
-        <v>0.001449382088793267</v>
+        <v>0.01728648490720874</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0342318495592853</v>
+        <v>0.0005396194317250438</v>
       </c>
       <c r="L6" t="n">
-        <v>2.259073307270285e-06</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.9331535034505237</v>
+        <v>0.869840958988926</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>s__Faecalibacterium prausnitzii_I</t>
+        </is>
       </c>
       <c r="N6" t="inlineStr">
-        <is>
-          <t>s__Faecalibacterium prausnitzii_I</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
         <is>
           <t>s__Faecalibacterium prausnitzii_I</t>
         </is>
@@ -783,47 +763,44 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0001612119996159686</v>
+        <v>0.001331350991349495</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0006193139229494586</v>
+        <v>0.01998554793822216</v>
       </c>
       <c r="D7" t="n">
-        <v>0.009076446854172287</v>
+        <v>0.02986193917185015</v>
       </c>
       <c r="E7" t="n">
-        <v>0.001252569493121093</v>
+        <v>0.01677158341471048</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02556958602560758</v>
+        <v>0.852995018152661</v>
       </c>
       <c r="G7" t="n">
-        <v>0.929911000833378</v>
+        <v>0.0005750734277596535</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0002140934100668777</v>
+        <v>0.05798789484426432</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02846578571185743</v>
+        <v>0.01944464192009572</v>
       </c>
       <c r="J7" t="n">
-        <v>0.004534617869585952</v>
+        <v>0.0007913581970496079</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0001934179588392552</v>
+        <v>0.0002555919420373134</v>
       </c>
       <c r="L7" t="n">
-        <v>1.955920806208423e-06</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.929911000833378</v>
+        <v>0.852995018152661</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>s__Faecalibacterium prausnitzii_I</t>
+        </is>
       </c>
       <c r="N7" t="inlineStr">
-        <is>
-          <t>s__Faecalibacterium prausnitzii_I</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
         <is>
           <t>s__Faecalibacterium prausnitzii_I</t>
         </is>
@@ -836,47 +813,44 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0001220106833723477</v>
+        <v>0.0007712845049397947</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0002292783392656537</v>
+        <v>0.01513416092343988</v>
       </c>
       <c r="D8" t="n">
-        <v>0.006386788402911014</v>
+        <v>0.009875386148787012</v>
       </c>
       <c r="E8" t="n">
-        <v>1.283927801523231e-05</v>
+        <v>0.006551806158423516</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001659365170895053</v>
+        <v>0.8464316917690375</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9237236212622738</v>
+        <v>0.001382122709762018</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0004305205658618512</v>
+        <v>0.04979070062948304</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02074349061691915</v>
+        <v>0.06590684801773025</v>
       </c>
       <c r="J8" t="n">
-        <v>0.04581058303688553</v>
+        <v>0.004093910746302097</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0008814977205445749</v>
+        <v>6.208839209481302e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>4.923055857340337e-09</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9237236212622738</v>
+        <v>0.8464316917690375</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>s__Faecalibacterium prausnitzii_I</t>
+        </is>
       </c>
       <c r="N8" t="inlineStr">
-        <is>
-          <t>s__Faecalibacterium prausnitzii_I</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
         <is>
           <t>s__Faecalibacterium prausnitzii_I</t>
         </is>
@@ -889,47 +863,44 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0001626496002530485</v>
+        <v>0.0005142879793260953</v>
       </c>
       <c r="C9" t="n">
-        <v>3.56228908188346e-05</v>
+        <v>0.01933656189305265</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01199630906561384</v>
+        <v>0.01109249168803556</v>
       </c>
       <c r="E9" t="n">
-        <v>1.19085140793099e-05</v>
+        <v>0.005298162965766279</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0001390143134775745</v>
+        <v>0.8957850882188113</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9536922294569304</v>
+        <v>0.001342830957923524</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0002975098501028299</v>
+        <v>0.03700481314281046</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02055972768885081</v>
+        <v>0.02895054459286958</v>
       </c>
       <c r="J9" t="n">
-        <v>0.01307050622670801</v>
+        <v>0.0006492538735426359</v>
       </c>
       <c r="K9" t="n">
-        <v>3.452106272892042e-05</v>
+        <v>2.596468786214016e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>1.330436318589862e-09</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.9536922294569304</v>
+        <v>0.8957850882188113</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>s__Faecalibacterium prausnitzii_I</t>
+        </is>
       </c>
       <c r="N9" t="inlineStr">
-        <is>
-          <t>s__Faecalibacterium prausnitzii_I</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
         <is>
           <t>s__Faecalibacterium prausnitzii_I</t>
         </is>
@@ -942,47 +913,44 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0002187469100634231</v>
+        <v>0.001079930557893013</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0002836221187603247</v>
+        <v>0.02245628182758099</v>
       </c>
       <c r="D10" t="n">
-        <v>0.008084715180287045</v>
+        <v>0.02777585821561531</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0001299899231758255</v>
+        <v>0.004590921566409768</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0001824465647682408</v>
+        <v>0.8686844255693366</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9439633091126585</v>
+        <v>0.0008967841272519716</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0005237152429045508</v>
+        <v>0.05888772884188186</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0264245340301936</v>
+        <v>0.003833822972142426</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0007612320365283625</v>
+        <v>0.01112259582956263</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01942538248686367</v>
+        <v>0.0006716504923254956</v>
       </c>
       <c r="L10" t="n">
-        <v>2.306393796530228e-06</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9439633091126585</v>
+        <v>0.8686844255693366</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>s__Faecalibacterium prausnitzii_I</t>
+        </is>
       </c>
       <c r="N10" t="inlineStr">
-        <is>
-          <t>s__Faecalibacterium prausnitzii_I</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
         <is>
           <t>s__Faecalibacterium prausnitzii_I</t>
         </is>
@@ -995,47 +963,44 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.009155343429786342</v>
+        <v>0.01744412717559257</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1305300827564117</v>
+        <v>0.07885553740053743</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1709698764648113</v>
+        <v>0.1938015854463195</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1838429977215546</v>
+        <v>0.02345032313662592</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04628479530582087</v>
+        <v>0.007075161218289746</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02413946800913943</v>
+        <v>0.006624758096890296</v>
       </c>
       <c r="H11" t="n">
-        <v>0.06380127178293118</v>
+        <v>0.5905164546629554</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2189055484646122</v>
+        <v>0.03668819307326528</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0588147777310747</v>
+        <v>0.009801905188410721</v>
       </c>
       <c r="K11" t="n">
-        <v>0.07264129152364712</v>
+        <v>0.03574195460111298</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02091454681021055</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.2189055484646122</v>
+        <v>0.5905164546629554</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>s__Faecalibacterium sp900539885</t>
+        </is>
       </c>
       <c r="N11" t="inlineStr">
-        <is>
-          <t>s__Faecalibacterium sp900539885</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
         <is>
           <t>s__Faecalibacterium sp900539885(reject)</t>
         </is>
@@ -1048,47 +1013,44 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0005775036554292516</v>
+        <v>0.006080554319515296</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0004295147719454745</v>
+        <v>0.02508279063049879</v>
       </c>
       <c r="D12" t="n">
-        <v>0.003449150821226286</v>
+        <v>0.04480312566361728</v>
       </c>
       <c r="E12" t="n">
-        <v>3.593450319814836e-05</v>
+        <v>0.8484026406300935</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9683938205755904</v>
+        <v>0.002507979070360925</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0001847698051889659</v>
+        <v>0.0003364442952250247</v>
       </c>
       <c r="H12" t="n">
-        <v>3.651216021907385e-06</v>
+        <v>0.05585713778863008</v>
       </c>
       <c r="I12" t="n">
-        <v>0.02178415149093819</v>
+        <v>0.01490438524596232</v>
       </c>
       <c r="J12" t="n">
-        <v>0.004010065471029332</v>
+        <v>3.108393342110934e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>1.744043089237372e-08</v>
+        <v>0.00199385842267556</v>
       </c>
       <c r="L12" t="n">
-        <v>0.001131420249001207</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.9683938205755904</v>
+        <v>0.8484026406300935</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>s__Faecalibacterium prausnitzii_H</t>
+        </is>
       </c>
       <c r="N12" t="inlineStr">
-        <is>
-          <t>s__Faecalibacterium prausnitzii_H</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
         <is>
           <t>s__Faecalibacterium prausnitzii_H</t>
         </is>
@@ -1101,47 +1063,44 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0001479187089648276</v>
+        <v>0.0005508177559820938</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0002680951754117845</v>
+        <v>0.01816039293221226</v>
       </c>
       <c r="D13" t="n">
-        <v>0.009671715943549087</v>
+        <v>0.01727681930401185</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0001307039278852007</v>
+        <v>0.006653548613147953</v>
       </c>
       <c r="F13" t="n">
-        <v>0.001083831310629321</v>
+        <v>0.8401968890244578</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9559426559811712</v>
+        <v>0.000618960923569909</v>
       </c>
       <c r="H13" t="n">
-        <v>0.000236352813897548</v>
+        <v>0.1069506460285718</v>
       </c>
       <c r="I13" t="n">
-        <v>0.02714430473931007</v>
+        <v>0.005060647789459629</v>
       </c>
       <c r="J13" t="n">
-        <v>0.001221309461229583</v>
+        <v>0.004283972610857452</v>
       </c>
       <c r="K13" t="n">
-        <v>0.004151988481313946</v>
+        <v>0.0002473050177293028</v>
       </c>
       <c r="L13" t="n">
-        <v>1.123456637477122e-06</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.9559426559811712</v>
+        <v>0.8401968890244578</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>s__Faecalibacterium prausnitzii_I</t>
+        </is>
       </c>
       <c r="N13" t="inlineStr">
-        <is>
-          <t>s__Faecalibacterium prausnitzii_I</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
         <is>
           <t>s__Faecalibacterium prausnitzii_I</t>
         </is>

--- a/outputs-HGR-r202/g__Faecalibacterium.xlsx
+++ b/outputs-HGR-r202/g__Faecalibacterium.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,6 +500,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -545,6 +550,11 @@
           <t>s__Faecalibacterium sp900539945</t>
         </is>
       </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>s__Faecalibacterium sp900539945</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -590,6 +600,11 @@
           <t>s__Faecalibacterium sp900539945</t>
         </is>
       </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>s__Faecalibacterium sp900539945</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -635,6 +650,11 @@
           <t>s__Faecalibacterium sp900540455</t>
         </is>
       </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>s__Faecalibacterium sp900540455</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -680,6 +700,11 @@
           <t>s__Faecalibacterium sp900540455</t>
         </is>
       </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>s__Faecalibacterium sp900540455</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -725,6 +750,11 @@
           <t>s__Faecalibacterium prausnitzii_I</t>
         </is>
       </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>s__Faecalibacterium prausnitzii_I</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -770,6 +800,11 @@
           <t>s__Faecalibacterium prausnitzii_I</t>
         </is>
       </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>s__Faecalibacterium prausnitzii_I</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -815,6 +850,11 @@
           <t>s__Faecalibacterium prausnitzii_I</t>
         </is>
       </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>s__Faecalibacterium prausnitzii_I</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -860,6 +900,11 @@
           <t>s__Faecalibacterium prausnitzii_I</t>
         </is>
       </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>s__Faecalibacterium prausnitzii_I</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -905,6 +950,11 @@
           <t>s__Faecalibacterium prausnitzii_I</t>
         </is>
       </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>s__Faecalibacterium prausnitzii_I</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -950,6 +1000,11 @@
           <t>s__Faecalibacterium sp900539885</t>
         </is>
       </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>s__Faecalibacterium sp900539885</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -995,6 +1050,11 @@
           <t>s__Faecalibacterium prausnitzii_H</t>
         </is>
       </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>s__Faecalibacterium prausnitzii_H</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1036,6 +1096,11 @@
         <v>0.8401968890244578</v>
       </c>
       <c r="M13" t="inlineStr">
+        <is>
+          <t>s__Faecalibacterium prausnitzii_I</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>s__Faecalibacterium prausnitzii_I</t>
         </is>
